--- a/表的划分.xlsx
+++ b/表的划分.xlsx
@@ -616,7 +616,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="A20" sqref="A20:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
